--- a/data/trans_camb/P25A_12_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,29</t>
+          <t>-3,99; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,41</t>
+          <t>-3,76; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,9</t>
+          <t>-2,43; 6,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,09</t>
+          <t>-3,23; 6,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,6</t>
+          <t>-3,0; 7,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,25</t>
+          <t>-2,49; 8,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 4,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 5,88</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>-13,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45,8%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 357,98</t>
+          <t>-83,68; 327,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 279,18</t>
+          <t>-80,6; 366,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 114,06</t>
+          <t>-55,19; 590,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 119,45</t>
+          <t>-39,28; 151,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 99,78</t>
+          <t>-31,74; 166,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 98,84</t>
+          <t>-28,24; 181,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,91; 110,72</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-33,35; 129,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,4; 163,28</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,06</t>
+          <t>-4,86; 4,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,12</t>
+          <t>-5,06; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,65</t>
+          <t>-3,25; 8,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,26</t>
+          <t>-4,72; 7,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,55</t>
+          <t>-7,4; 4,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,23</t>
+          <t>-3,25; 9,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 4,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 2,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 7,03</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>-7,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-22,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>42,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-18,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 245,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 216,53</t>
+          <t>-75,97; 324,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 82,52</t>
+          <t>-48,27; 493,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 92,99</t>
+          <t>-48,3; 156,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 68,48</t>
+          <t>-70,54; 88,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 70,4</t>
+          <t>-33,19; 193,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; 106,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-62,16; 60,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 165,73</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 5,66</t>
+          <t>-19,39; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,26</t>
+          <t>-13,96; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 13,87</t>
+          <t>-15,4; 5,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 11,1</t>
+          <t>-2,15; 17,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,25</t>
+          <t>-3,49; 13,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,52</t>
+          <t>-2,36; 19,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 5,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 6,49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 9,29</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,2%</t>
+          <t>-44,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>192,77%</t>
+          <t>-53,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>114,62%</t>
+          <t>226,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>117,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>264,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34,06%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 602,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,13; 466,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,39</t>
+          <t>-4,0; 1,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,13</t>
+          <t>-3,67; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,71</t>
+          <t>-1,85; 4,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,93</t>
+          <t>-1,76; 5,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,42</t>
+          <t>-2,84; 4,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,17</t>
+          <t>-0,82; 7,24</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 4,96</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43,29%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 129,46</t>
+          <t>-68,7; 81,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 119,83</t>
+          <t>-65,94; 85,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 69,02</t>
+          <t>-37,18; 198,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 71,15</t>
+          <t>-20,72; 116,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 60,44</t>
+          <t>-34,42; 92,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 55,69</t>
+          <t>-9,74; 141,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; 73,69</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-33,47; 61,46</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 117,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
